--- a/roaster/input/input2.xlsx
+++ b/roaster/input/input2.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="26100" windowHeight="17160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Comments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
